--- a/Duties.xlsx
+++ b/Duties.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="207">
   <si>
     <t>Monday</t>
   </si>
@@ -628,10 +628,22 @@
     <t>EXPORT - CSV</t>
   </si>
   <si>
-    <t>FbCommand, FirebirdSql.Data.FirebirdClient C# (CSharp) Code Examples - HotExamples</t>
-  </si>
-  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>DOCMAN - Delete Files / Move</t>
+  </si>
+  <si>
+    <t>DOCMAN - File insert Logic</t>
+  </si>
+  <si>
+    <t>DOCMAN - Delete UX Design</t>
+  </si>
+  <si>
+    <t>DOCMAN - Insert Docpath to table</t>
+  </si>
+  <si>
+    <t>DOCMAN - PDF Export adjustments</t>
   </si>
 </sst>
 </file>
@@ -2656,16 +2668,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -2873,7 +2886,7 @@
         <v>196</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2905,15 +2918,135 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45363</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45364</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45365</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45366</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45367</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
-        <v>201</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="41"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" display="https://csharp.hotexamples.com/examples/FirebirdSql.Data.FirebirdClient/FbCommand/-/php-fbcommand-class-examples.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Duties.xlsx
+++ b/Duties.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="211">
   <si>
     <t>Monday</t>
   </si>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>DOCMAN - PDF Export adjustments</t>
+  </si>
+  <si>
+    <t>DOCMAN - Logs Insert</t>
+  </si>
+  <si>
+    <t>DOCMAN - Code cleanup</t>
+  </si>
+  <si>
+    <t>DOCMAN - Testing</t>
+  </si>
+  <si>
+    <t>DOCMAN - Documentation</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2683,7 @@
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,7 +2983,9 @@
       <c r="C21" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6"/>
@@ -2984,7 +2998,9 @@
       <c r="C22" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6"/>
@@ -2997,7 +3013,9 @@
       <c r="C23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="6"/>
@@ -3008,7 +3026,9 @@
       <c r="C24" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>

--- a/Duties.xlsx
+++ b/Duties.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
   <si>
     <t>Monday</t>
   </si>
@@ -656,13 +656,67 @@
   </si>
   <si>
     <t>DOCMAN - Documentation</t>
+  </si>
+  <si>
+    <t>Morning meeting</t>
+  </si>
+  <si>
+    <t>DOCMAN - IIS Posting</t>
+  </si>
+  <si>
+    <t>IIS - setup</t>
+  </si>
+  <si>
+    <t>DOCMAN - Security</t>
+  </si>
+  <si>
+    <t>half day</t>
+  </si>
+  <si>
+    <t>DOCMAN - Enviroment set up</t>
+  </si>
+  <si>
+    <t>WMSLite - Start</t>
+  </si>
+  <si>
+    <t>WMSLite - Discovery</t>
+  </si>
+  <si>
+    <t>Sales Simplicity - Discovery</t>
+  </si>
+  <si>
+    <t>Reporting - Marketing report model pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting - Marketing report </t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>Reporting - report discovery</t>
+  </si>
+  <si>
+    <t>Visual Studio - ssrs report integration</t>
+  </si>
+  <si>
+    <t>TRADES - Discovery</t>
+  </si>
+  <si>
+    <t>SSRS - discovery</t>
+  </si>
+  <si>
+    <t>Ticket - Glen</t>
+  </si>
+  <si>
+    <t>Ticket - Daniel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,16 +762,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +809,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,9 +1015,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1087,10 +1138,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2680,20 +2732,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -2986,8 +3036,12 @@
       <c r="D21" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
@@ -3001,8 +3055,12 @@
       <c r="D22" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
@@ -3017,7 +3075,9 @@
         <v>209</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
@@ -3064,7 +3124,262 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="41"/>
+      <c r="B28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45370</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45371</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45372</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45373</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45374</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45370</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45371</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45372</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45373</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45374</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
